--- a/TestData_Login.xlsx
+++ b/TestData_Login.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Cargo Community Network Pte Ltd\Booking Concierge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abraham Farrendy\git\CCN-Projects-Booking-Concierge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AD70B57-27A7-40CB-8A42-184D796277EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B073382-BB5D-478D-A283-F306426D1484}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-15720" windowWidth="29040" windowHeight="15840" xr2:uid="{34DAB141-2A03-497B-AECE-4B2AB4C9D309}"/>
+    <workbookView xWindow="11448" yWindow="0" windowWidth="11580" windowHeight="12552" xr2:uid="{34DAB141-2A03-497B-AECE-4B2AB4C9D309}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>vEmail</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>testulala@yahoo.com</t>
+  </si>
+  <si>
+    <t>testingdev222@yopmail.com</t>
+  </si>
+  <si>
+    <t>password1</t>
   </si>
 </sst>
 </file>
@@ -422,16 +428,16 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,20 +445,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -460,7 +466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -468,7 +474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>

--- a/TestData_Login.xlsx
+++ b/TestData_Login.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abraham Farrendy\git\CCN-Projects-Booking-Concierge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Cargo Community Network Pte Ltd\Booking Concierge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B073382-BB5D-478D-A283-F306426D1484}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6967DE1-6F77-4F9C-823A-A534086F3995}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11448" yWindow="0" windowWidth="11580" windowHeight="12552" xr2:uid="{34DAB141-2A03-497B-AECE-4B2AB4C9D309}"/>
+    <workbookView xWindow="-120" yWindow="-15720" windowWidth="29040" windowHeight="15840" xr2:uid="{34DAB141-2A03-497B-AECE-4B2AB4C9D309}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>vEmail</t>
   </si>
@@ -59,10 +59,10 @@
     <t>testulala@yahoo.com</t>
   </si>
   <si>
-    <t>testingdev222@yopmail.com</t>
-  </si>
-  <si>
-    <t>password1</t>
+    <t>testingdev3@yahoo.com</t>
+  </si>
+  <si>
+    <t>testingdev22@yahoo.com</t>
   </si>
 </sst>
 </file>
@@ -425,19 +425,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A92111C-02F3-41CD-BE2D-17375F8294C3}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,20 +445,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -466,7 +466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -474,12 +474,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -488,6 +501,8 @@
     <hyperlink ref="A3" r:id="rId2" xr:uid="{5C75B284-F6C5-4C6F-833E-D016EF534EE7}"/>
     <hyperlink ref="A4" r:id="rId3" xr:uid="{3AA05C5C-A532-4C35-B854-69EA0271C304}"/>
     <hyperlink ref="A6" r:id="rId4" xr:uid="{BC4F0C60-3350-4F9D-B7C2-69105C7DBCF9}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{6C7FF7A5-968C-46C9-88F2-BFDBFF0469D9}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{DD70A40A-E54B-4E29-B8AE-8D0D5466C74A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData_Login.xlsx
+++ b/TestData_Login.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Cargo Community Network Pte Ltd\Booking Concierge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6967DE1-6F77-4F9C-823A-A534086F3995}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5891FD3B-775D-42B7-81C7-7AC8BFF2DE57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-15720" windowWidth="29040" windowHeight="15840" xr2:uid="{34DAB141-2A03-497B-AECE-4B2AB4C9D309}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>vEmail</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>testingdev22@yahoo.com</t>
+  </si>
+  <si>
+    <t>testingdevbc1@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -425,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A92111C-02F3-41CD-BE2D-17375F8294C3}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,6 +498,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{09EDFD58-3970-4CC4-9FBC-4F13AA17C0E3}"/>
@@ -503,6 +511,7 @@
     <hyperlink ref="A6" r:id="rId4" xr:uid="{BC4F0C60-3350-4F9D-B7C2-69105C7DBCF9}"/>
     <hyperlink ref="A7" r:id="rId5" xr:uid="{6C7FF7A5-968C-46C9-88F2-BFDBFF0469D9}"/>
     <hyperlink ref="A8" r:id="rId6" xr:uid="{DD70A40A-E54B-4E29-B8AE-8D0D5466C74A}"/>
+    <hyperlink ref="A9" r:id="rId7" xr:uid="{EB5CD4D9-78EB-4F33-AF19-9DC5C7B2777F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
